--- a/Tenant Migration Assessment/TenantAssessment-Template.xlsx
+++ b/Tenant Migration Assessment/TenantAssessment-Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\AdminSeanMc\Tenant Migration Assessment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F928ED0-445C-4A12-ADCC-4B8A7907560D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7B8CE61-0C60-493D-86B7-0EB9E5EEA1A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3075" yWindow="3075" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="High-Level" sheetId="25" r:id="rId1"/>
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="125">
   <si>
     <t>Migrate</t>
   </si>
@@ -461,6 +461,24 @@
   </si>
   <si>
     <t>Additional Notes:</t>
+  </si>
+  <si>
+    <t>SharedChannels</t>
+  </si>
+  <si>
+    <t>SharedChannelSize</t>
+  </si>
+  <si>
+    <t>IncomingSharedChannels</t>
+  </si>
+  <si>
+    <t>Shared Channels</t>
+  </si>
+  <si>
+    <t>Incoming Shared Channels</t>
+  </si>
+  <si>
+    <t>Teams Shared Channel Data Size (GB)</t>
   </si>
 </sst>
 </file>
@@ -504,7 +522,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
@@ -514,7 +532,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
@@ -541,6 +558,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -559,8 +578,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8C81E16F-87D4-465B-9D71-E2F034FAE778}" name="Table1" displayName="Table1" ref="A2:B17" totalsRowShown="0">
-  <autoFilter ref="A2:B17" xr:uid="{8C81E16F-87D4-465B-9D71-E2F034FAE778}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8C81E16F-87D4-465B-9D71-E2F034FAE778}" name="Table1" displayName="Table1" ref="A2:B20" totalsRowShown="0">
+  <autoFilter ref="A2:B20" xr:uid="{8C81E16F-87D4-465B-9D71-E2F034FAE778}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{9745AFED-DF63-40DF-91FD-BBFCFCDD2EEB}" name="Object"/>
     <tableColumn id="2" xr3:uid="{226A0CAD-C46B-4E71-972B-959E9A2A0C3D}" name="Value"/>
@@ -866,10 +885,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18BF38E7-87BB-48B9-8B60-C799BBDAF6DD}">
-  <dimension ref="A2:B20"/>
+  <dimension ref="A2:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -988,42 +1007,69 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>112</v>
-      </c>
-      <c r="B14" cm="1">
-        <f t="array" ref="B14">ROUNDUP(SUM(((Teams!E2:E1048576)/1024)/1024)/1024,3)</f>
+        <v>122</v>
+      </c>
+      <c r="B14">
+        <f>SUM(Teams!E2:E1048576)</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>113</v>
-      </c>
-      <c r="B15" cm="1">
-        <f t="array" ref="B15">ROUNDUP(SUM(((Teams!F2:F1048576)/1024)/1024)/1024,3)</f>
+        <v>123</v>
+      </c>
+      <c r="B15">
+        <f>SUM(Teams!I2:I1048576)</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
+        <v>112</v>
+      </c>
+      <c r="B16" cm="1">
+        <f t="array" ref="B16">ROUNDUP(SUM(((Teams!E2:E1048576)/1024)/1024)/1024,3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>113</v>
+      </c>
+      <c r="B17" cm="1">
+        <f t="array" ref="B17">ROUNDUP(SUM(((Teams!F2:F1048576)/1024)/1024)/1024,3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>124</v>
+      </c>
+      <c r="B18" cm="1">
+        <f t="array" ref="B18">ROUNDUP(SUM(((Teams!H2:H1048576)/1024)/1024)/1024,3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
         <v>115</v>
       </c>
-      <c r="B16">
+      <c r="B19">
         <f>COUNTA('User Accounts'!M:M)-1</f>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
         <v>114</v>
       </c>
-      <c r="B17">
+      <c r="B20">
         <f>ROUNDUP(SUM('User Accounts'!L2:L1048576),3)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
         <v>118</v>
       </c>
     </row>
@@ -1065,52 +1111,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="M1" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="N1" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="O1" s="14" t="s">
+      <c r="O1" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="P1" s="14" t="s">
+      <c r="P1" s="13" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1135,7 +1181,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="15"/>
+      <c r="A1" s="14"/>
     </row>
   </sheetData>
   <autoFilter ref="A1" xr:uid="{00000000-0009-0000-0000-000009000000}"/>
@@ -1167,72 +1213,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="16" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="I2" s="16"/>
+      <c r="I2" s="15"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="I3" s="16"/>
+      <c r="I3" s="15"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="I4" s="16"/>
+      <c r="I4" s="15"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="I5" s="16"/>
+      <c r="I5" s="15"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="I6" s="16"/>
+      <c r="I6" s="15"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="I7" s="16"/>
+      <c r="I7" s="15"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="I8" s="16"/>
+      <c r="I8" s="15"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="I9" s="16"/>
+      <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="I10" s="16"/>
+      <c r="I10" s="15"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="I11" s="16"/>
+      <c r="I11" s="15"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="I12" s="16"/>
+      <c r="I12" s="15"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="I13" s="16"/>
+      <c r="I13" s="15"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:J13" xr:uid="{00000000-0009-0000-0000-00000A000000}"/>
@@ -1261,25 +1307,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="17" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1311,33 +1357,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="19" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="G2" s="19"/>
+      <c r="G2" s="18"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:H2" xr:uid="{00000000-0009-0000-0000-00000C000000}"/>
@@ -1367,48 +1413,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="21" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="G2" s="21"/>
+      <c r="G2" s="20"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="G3" s="21"/>
+      <c r="G3" s="20"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="G4" s="21"/>
+      <c r="G4" s="20"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="G5" s="21"/>
+      <c r="G5" s="20"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="G6" s="21"/>
+      <c r="G6" s="20"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="G7" s="21"/>
+      <c r="G7" s="20"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:H7" xr:uid="{00000000-0009-0000-0000-00000D000000}"/>
@@ -1438,33 +1484,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="23" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="G2" s="23"/>
+      <c r="G2" s="22"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:H2" xr:uid="{00000000-0009-0000-0000-00000E000000}"/>
@@ -1493,25 +1539,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="24" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1545,63 +1591,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="I1" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="J1" s="26" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="I2" s="26"/>
+      <c r="I2" s="25"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="I4" s="26"/>
+      <c r="I4" s="25"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="I5" s="26"/>
+      <c r="I5" s="25"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="I7" s="26"/>
+      <c r="I7" s="25"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="I11" s="26"/>
+      <c r="I11" s="25"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="I13" s="26"/>
+      <c r="I13" s="25"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="I15" s="26"/>
+      <c r="I15" s="25"/>
     </row>
     <row r="17" spans="9:9">
-      <c r="I17" s="26"/>
+      <c r="I17" s="25"/>
     </row>
     <row r="20" spans="9:9">
-      <c r="I20" s="26"/>
+      <c r="I20" s="25"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:J22" xr:uid="{00000000-0009-0000-0000-000010000000}"/>
@@ -1627,25 +1673,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="28" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:E2" xr:uid="{00000000-0009-0000-0000-000011000000}"/>
@@ -1856,34 +1902,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="H1" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="I1" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="J1" s="29" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1912,19 +1958,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="30" t="s">
         <v>95</v>
       </c>
     </row>
@@ -1953,22 +1999,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="31" t="s">
         <v>100</v>
       </c>
     </row>
@@ -1993,7 +2039,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="33"/>
+      <c r="A1" s="32"/>
     </row>
   </sheetData>
   <autoFilter ref="A1" xr:uid="{00000000-0009-0000-0000-000015000000}"/>
@@ -2016,7 +2062,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="34"/>
+      <c r="A1" s="33"/>
     </row>
   </sheetData>
   <autoFilter ref="A1" xr:uid="{00000000-0009-0000-0000-000016000000}"/>
@@ -2049,37 +2095,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="F1" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="35" t="s">
+      <c r="G1" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="35" t="s">
+      <c r="H1" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="35" t="s">
+      <c r="I1" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="35" t="s">
+      <c r="J1" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="35" t="s">
+      <c r="K1" s="34" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2425,11 +2471,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:R12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD12"/>
+      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2438,7 +2484,7 @@
     <col min="2" max="2" width="29.5703125" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
     <col min="4" max="4" width="18.140625" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="5" max="5" width="27.28515625" customWidth="1"/>
     <col min="6" max="6" width="21.7109375" customWidth="1"/>
     <col min="7" max="7" width="60.28515625" customWidth="1"/>
     <col min="8" max="8" width="69.5703125" customWidth="1"/>
@@ -2451,94 +2497,103 @@
     <col min="15" max="15" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:18" s="36" customFormat="1">
+      <c r="A1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="F1" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="I1" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="J1" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="K1" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="L1" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="M1" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="N1" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="O1" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="P1" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="Q1" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="R1" s="35" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:18">
       <c r="H2" s="8"/>
       <c r="N2" s="8"/>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:18">
       <c r="H3" s="8"/>
       <c r="N3" s="8"/>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:18">
       <c r="H4" s="8"/>
       <c r="N4" s="8"/>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:18">
       <c r="H5" s="8"/>
       <c r="N5" s="8"/>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:18">
       <c r="H6" s="8"/>
       <c r="N6" s="8"/>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:18">
       <c r="H7" s="8"/>
       <c r="N7" s="8"/>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:18">
       <c r="H8" s="8"/>
       <c r="N8" s="8"/>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:18">
       <c r="H9" s="8"/>
       <c r="N9" s="8"/>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:18">
       <c r="H10" s="8"/>
       <c r="N10" s="8"/>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:18">
       <c r="H11" s="8"/>
       <c r="N11" s="8"/>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:18">
       <c r="H12" s="8"/>
       <c r="N12" s="8"/>
     </row>
@@ -2574,45 +2629,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="H2" s="10"/>
+      <c r="H2" s="9"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:L2" xr:uid="{00000000-0009-0000-0000-000005000000}"/>
@@ -2638,16 +2693,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2674,9 +2729,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="13"/>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
+      <c r="A1" s="12"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Tenant Migration Assessment/TenantAssessment-Template.xlsx
+++ b/Tenant Migration Assessment/TenantAssessment-Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\AdminSeanMc\Tenant Migration Assessment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7B8CE61-0C60-493D-86B7-0EB9E5EEA1A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21351894-7A15-44D0-9877-271CEC8182B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3075" yWindow="3075" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="High-Level" sheetId="25" r:id="rId1"/>
@@ -430,9 +430,6 @@
     <t>Private Channels</t>
   </si>
   <si>
-    <t>Distribution Groups</t>
-  </si>
-  <si>
     <t>Unified Groups</t>
   </si>
   <si>
@@ -479,6 +476,9 @@
   </si>
   <si>
     <t>Teams Shared Channel Data Size (GB)</t>
+  </si>
+  <si>
+    <t>Standard Groups</t>
   </si>
 </sst>
 </file>
@@ -888,7 +888,7 @@
   <dimension ref="A2:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -900,10 +900,10 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" t="s">
         <v>116</v>
-      </c>
-      <c r="B2" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -944,7 +944,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="B7">
         <f>COUNTA('Standard Groups'!C:C)-1</f>
@@ -953,7 +953,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B8">
         <f>COUNTA('Unified Groups'!A:A)-1</f>
@@ -962,7 +962,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B9">
         <f>(SUM('User Accounts'!K2:K1048576)+(SUM('Shared Mailboxes'!K2:K1048576))+(SUM('Resource Accounts'!K2:K1048576))+(SUM('User Accounts'!O2:O1048576)))</f>
@@ -980,7 +980,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B11" cm="1">
         <f t="array" ref="B11">SUM((('SharePoint Sites'!I2:I1048576)/1024)/1024)/1024</f>
@@ -1007,7 +1007,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B14">
         <f>SUM(Teams!E2:E1048576)</f>
@@ -1016,7 +1016,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B15">
         <f>SUM(Teams!I2:I1048576)</f>
@@ -1025,7 +1025,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B16" cm="1">
         <f t="array" ref="B16">ROUNDUP(SUM(((Teams!E2:E1048576)/1024)/1024)/1024,3)</f>
@@ -1034,7 +1034,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B17" cm="1">
         <f t="array" ref="B17">ROUNDUP(SUM(((Teams!F2:F1048576)/1024)/1024)/1024,3)</f>
@@ -1043,7 +1043,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B18" cm="1">
         <f t="array" ref="B18">ROUNDUP(SUM(((Teams!H2:H1048576)/1024)/1024)/1024,3)</f>
@@ -1052,7 +1052,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B19">
         <f>COUNTA('User Accounts'!M:M)-1</f>
@@ -1061,7 +1061,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B20">
         <f>ROUNDUP(SUM('User Accounts'!L2:L1048576),3)</f>
@@ -1070,7 +1070,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -2511,7 +2511,7 @@
         <v>40</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F1" s="35" t="s">
         <v>41</v>
@@ -2520,10 +2520,10 @@
         <v>42</v>
       </c>
       <c r="H1" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="I1" s="35" t="s">
         <v>120</v>
-      </c>
-      <c r="I1" s="35" t="s">
-        <v>121</v>
       </c>
       <c r="J1" s="35" t="s">
         <v>4</v>

--- a/Tenant Migration Assessment/TenantAssessment-Template.xlsx
+++ b/Tenant Migration Assessment/TenantAssessment-Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\AdminSeanMc\Tenant Migration Assessment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21351894-7A15-44D0-9877-271CEC8182B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BAB9323-7A29-497D-8550-F6C254964BB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="7" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="High-Level" sheetId="25" r:id="rId1"/>
@@ -23,47 +23,35 @@
     <sheet name="AAD Apps" sheetId="7" r:id="rId8"/>
     <sheet name="Conditional Access" sheetId="8" r:id="rId9"/>
     <sheet name="M365 Apps Usage Usage" sheetId="9" r:id="rId10"/>
-    <sheet name="Client App Usage" sheetId="10" r:id="rId11"/>
-    <sheet name="Unified Groups" sheetId="11" r:id="rId12"/>
-    <sheet name="Mailbox Statistics" sheetId="12" r:id="rId13"/>
-    <sheet name="Shared Mailbox Statistics" sheetId="13" r:id="rId14"/>
-    <sheet name="Room Mailbox Statistics" sheetId="14" r:id="rId15"/>
-    <sheet name="Equipment Mailbox Statistics" sheetId="15" r:id="rId16"/>
-    <sheet name="Archive Mailbox Statistics" sheetId="16" r:id="rId17"/>
-    <sheet name="Standard Groups" sheetId="17" r:id="rId18"/>
-    <sheet name="MailContacts" sheetId="18" r:id="rId19"/>
-    <sheet name="MX Records" sheetId="19" r:id="rId20"/>
-    <sheet name="Verified Domains" sheetId="20" r:id="rId21"/>
-    <sheet name="Transport Rules" sheetId="21" r:id="rId22"/>
-    <sheet name="Receive Connectors" sheetId="22" r:id="rId23"/>
-    <sheet name="Send Connectors" sheetId="23" r:id="rId24"/>
-    <sheet name="OneDrive Sites" sheetId="24" r:id="rId25"/>
+    <sheet name="Unified Groups" sheetId="11" r:id="rId11"/>
+    <sheet name="Standard Groups" sheetId="17" r:id="rId12"/>
+    <sheet name="MailContacts" sheetId="18" r:id="rId13"/>
+    <sheet name="MX Records" sheetId="19" r:id="rId14"/>
+    <sheet name="Verified Domains" sheetId="20" r:id="rId15"/>
+    <sheet name="Transport Rules" sheetId="21" r:id="rId16"/>
+    <sheet name="Receive Connectors" sheetId="22" r:id="rId17"/>
+    <sheet name="Send Connectors" sheetId="23" r:id="rId18"/>
+    <sheet name="OneDrive Sites" sheetId="24" r:id="rId19"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'AAD Apps'!$A$1:$D$7</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">'Archive Mailbox Statistics'!$A$1:$G$21</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'Client App Usage'!$A$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Conditional Access'!$A$1:$C$35</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">'Equipment Mailbox Statistics'!$A$1:$H$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Guest Accounts'!$A$1:$L$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'M365 Apps Usage Usage'!$A$1:$P$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'Mailbox Statistics'!$A$1:$G$28</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">MailContacts!$A$1:$E$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="19" hidden="1">'MX Records'!$A$1:$J$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="24" hidden="1">'OneDrive Sites'!$A$1:$K$21</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="22" hidden="1">'Receive Connectors'!$A$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">MailContacts!$A$1:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'MX Records'!$A$1:$J$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">'OneDrive Sites'!$A$1:$K$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">'Receive Connectors'!$A$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Resource Accounts'!$A$1:$X$8</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">'Room Mailbox Statistics'!$A$1:$H$7</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="23" hidden="1">'Send Connectors'!$A$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'Shared Mailbox Statistics'!$A$1:$H$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">'Send Connectors'!$A$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Shared Mailboxes'!$A$1:$X$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'SharePoint Sites'!$A$1:$N$44</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">'Standard Groups'!$A$1:$J$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'Standard Groups'!$A$1:$J$22</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Teams!$A$1:$O$12</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="21" hidden="1">'Transport Rules'!$A$1:$F$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'Unified Groups'!$A$1:$J$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">'Transport Rules'!$A$1:$F$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'Unified Groups'!$A$1:$J$13</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'User Accounts'!$A$1:$X$30</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="20" hidden="1">'Verified Domains'!$A$1:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">'Verified Domains'!$A$1:$E$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -104,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="115">
   <si>
     <t>Migrate</t>
   </si>
@@ -304,43 +292,13 @@
     <t>Office 365 Inactive</t>
   </si>
   <si>
-    <t>ObjectID</t>
-  </si>
-  <si>
-    <t>MailboxGuid</t>
-  </si>
-  <si>
     <t>DisplayName</t>
   </si>
   <si>
-    <t>Primarysmtpaddress</t>
-  </si>
-  <si>
-    <t>ItemCount</t>
-  </si>
-  <si>
-    <t>TotalItemSize</t>
-  </si>
-  <si>
-    <t>Database</t>
-  </si>
-  <si>
-    <t>ExternalDirectoryObjectId</t>
-  </si>
-  <si>
-    <t>UserPrincipalName</t>
-  </si>
-  <si>
-    <t>MailboxSize</t>
-  </si>
-  <si>
     <t>Alias</t>
   </si>
   <si>
     <t>EmailAddresses</t>
-  </si>
-  <si>
-    <t>RecipientTypeDetails</t>
   </si>
   <si>
     <t>ExternalEmailAddress</t>
@@ -522,7 +480,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
@@ -537,16 +495,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
@@ -887,8 +836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18BF38E7-87BB-48B9-8B60-C799BBDAF6DD}">
   <dimension ref="A2:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -900,15 +849,15 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="B2" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B3">
         <f>COUNTA('User Accounts'!B:B)-1</f>
@@ -917,7 +866,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="B4">
         <f>COUNTA('User Accounts'!E:E)-1</f>
@@ -926,7 +875,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B5">
         <f>COUNTA('Shared Mailboxes'!B:B)-1</f>
@@ -935,7 +884,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="B6">
         <f>COUNTA('Resource Accounts'!B:B)-1</f>
@@ -944,7 +893,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="B7">
         <f>COUNTA('Standard Groups'!C:C)-1</f>
@@ -953,7 +902,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="B8">
         <f>COUNTA('Unified Groups'!A:A)-1</f>
@@ -962,7 +911,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="B9">
         <f>(SUM('User Accounts'!K2:K1048576)+(SUM('Shared Mailboxes'!K2:K1048576))+(SUM('Resource Accounts'!K2:K1048576))+(SUM('User Accounts'!O2:O1048576)))</f>
@@ -971,7 +920,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="B10">
         <f>COUNTA('SharePoint Sites'!B:B)-1</f>
@@ -980,7 +929,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="B11" cm="1">
         <f t="array" ref="B11">SUM((('SharePoint Sites'!I2:I1048576)/1024)/1024)/1024</f>
@@ -989,7 +938,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="B12">
         <f>COUNTA(Teams!A:A)-1</f>
@@ -998,7 +947,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="B13">
         <f>SUM(Teams!D2:D1048576)</f>
@@ -1007,7 +956,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B14">
         <f>SUM(Teams!E2:E1048576)</f>
@@ -1016,7 +965,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="B15">
         <f>SUM(Teams!I2:I1048576)</f>
@@ -1025,7 +974,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="B16" cm="1">
         <f t="array" ref="B16">ROUNDUP(SUM(((Teams!E2:E1048576)/1024)/1024)/1024,3)</f>
@@ -1034,7 +983,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="B17" cm="1">
         <f t="array" ref="B17">ROUNDUP(SUM(((Teams!F2:F1048576)/1024)/1024)/1024,3)</f>
@@ -1043,7 +992,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="B18" cm="1">
         <f t="array" ref="B18">ROUNDUP(SUM(((Teams!H2:H1048576)/1024)/1024)/1024,3)</f>
@@ -1052,7 +1001,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="B19">
         <f>COUNTA('User Accounts'!M:M)-1</f>
@@ -1061,7 +1010,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="B20">
         <f>ROUNDUP(SUM('User Accounts'!L2:L1048576),3)</f>
@@ -1070,7 +1019,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -1167,29 +1116,6 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D24" sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="14"/>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1" xr:uid="{00000000-0009-0000-0000-000009000000}"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:J13"/>
   <sheetViews>
@@ -1213,72 +1139,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="15" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="I2" s="15"/>
+      <c r="I2" s="14"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="I3" s="15"/>
+      <c r="I3" s="14"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="I4" s="15"/>
+      <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="I5" s="15"/>
+      <c r="I5" s="14"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="I6" s="15"/>
+      <c r="I6" s="14"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="I7" s="15"/>
+      <c r="I7" s="14"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="I8" s="15"/>
+      <c r="I8" s="14"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="I9" s="15"/>
+      <c r="I9" s="14"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="I10" s="15"/>
+      <c r="I10" s="14"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="I11" s="15"/>
+      <c r="I11" s="14"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="I12" s="15"/>
+      <c r="I12" s="14"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="I13" s="15"/>
+      <c r="I13" s="14"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:J13" xr:uid="{00000000-0009-0000-0000-00000A000000}"/>
@@ -1286,294 +1212,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="39.28515625" customWidth="1"/>
-    <col min="2" max="2" width="39" customWidth="1"/>
-    <col min="3" max="3" width="23.28515625" customWidth="1"/>
-    <col min="4" max="4" width="42.7109375" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" customWidth="1"/>
-    <col min="6" max="6" width="26.7109375" customWidth="1"/>
-    <col min="7" max="7" width="12" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>72</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:G28" xr:uid="{00000000-0009-0000-0000-00000B000000}"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="37.85546875" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" customWidth="1"/>
-    <col min="3" max="3" width="43.85546875" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" customWidth="1"/>
-    <col min="7" max="7" width="98.7109375" customWidth="1"/>
-    <col min="8" max="8" width="22.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="G2" s="18"/>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:H2" xr:uid="{00000000-0009-0000-0000-00000C000000}"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:H7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="39.28515625" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
-    <col min="3" max="3" width="40.85546875" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" customWidth="1"/>
-    <col min="7" max="7" width="46.42578125" customWidth="1"/>
-    <col min="8" max="8" width="22.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="G2" s="20"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="G3" s="20"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="G4" s="20"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="G5" s="20"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="G6" s="20"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="G7" s="20"/>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:H7" xr:uid="{00000000-0009-0000-0000-00000D000000}"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="37.85546875" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" customWidth="1"/>
-    <col min="3" max="3" width="40.28515625" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" customWidth="1"/>
-    <col min="7" max="7" width="45.85546875" customWidth="1"/>
-    <col min="8" max="8" width="22.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="B1" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="C1" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="E1" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="F1" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="G1" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="H1" s="23" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="G2" s="22"/>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:H2" xr:uid="{00000000-0009-0000-0000-00000E000000}"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="39" customWidth="1"/>
-    <col min="2" max="2" width="38.7109375" customWidth="1"/>
-    <col min="3" max="3" width="33.85546875" customWidth="1"/>
-    <col min="4" max="4" width="42.7109375" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" customWidth="1"/>
-    <col min="6" max="6" width="23.28515625" customWidth="1"/>
-    <col min="7" max="7" width="22.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="F1" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="G1" s="24" t="s">
-        <v>72</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:G21" xr:uid="{00000000-0009-0000-0000-00000F000000}"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD22"/>
+      <selection pane="bottomLeft" activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1591,63 +1236,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="I1" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="26" t="s">
+      <c r="J1" s="17" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="I2" s="25"/>
+      <c r="I2" s="16"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="I4" s="25"/>
+      <c r="I4" s="16"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="I5" s="25"/>
+      <c r="I5" s="16"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="I7" s="25"/>
+      <c r="I7" s="16"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="I11" s="25"/>
+      <c r="I11" s="16"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="I13" s="25"/>
+      <c r="I13" s="16"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="I15" s="25"/>
+      <c r="I15" s="16"/>
     </row>
     <row r="17" spans="9:9">
-      <c r="I17" s="25"/>
+      <c r="I17" s="16"/>
     </row>
     <row r="20" spans="9:9">
-      <c r="I20" s="25"/>
+      <c r="I20" s="16"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:J22" xr:uid="{00000000-0009-0000-0000-000010000000}"/>
@@ -1655,7 +1300,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -1673,28 +1318,284 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="D1" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="E1" s="28" t="s">
-        <v>80</v>
+      <c r="E1" s="19" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:E2" xr:uid="{00000000-0009-0000-0000-000011000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+  <dimension ref="A1:J1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="2" max="3" width="41.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="31.7109375" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="J1" s="20" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:J2" xr:uid="{00000000-0009-0000-0000-000012000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="33" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" customWidth="1"/>
+    <col min="4" max="4" width="31.7109375" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:E2" xr:uid="{00000000-0009-0000-0000-000013000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="28.140625" customWidth="1"/>
+    <col min="2" max="3" width="9.140625" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col min="5" max="5" width="248" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:F5" xr:uid="{00000000-0009-0000-0000-000014000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D26" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="23"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1" xr:uid="{00000000-0009-0000-0000-000015000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D21" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="24"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1" xr:uid="{00000000-0009-0000-0000-000016000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
+  <dimension ref="A1:K1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="24.5703125" customWidth="1"/>
+    <col min="2" max="2" width="38.140625" customWidth="1"/>
+    <col min="3" max="3" width="38" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" customWidth="1"/>
+    <col min="8" max="8" width="21.42578125" customWidth="1"/>
+    <col min="9" max="9" width="25.42578125" customWidth="1"/>
+    <col min="10" max="10" width="38.140625" customWidth="1"/>
+    <col min="11" max="11" width="16.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" s="25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:K21" xr:uid="{00000000-0009-0000-0000-000017000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1879,262 +1780,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
-  <dimension ref="A1:J1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="1"/>
-    <col min="2" max="3" width="41.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" customWidth="1"/>
-    <col min="5" max="5" width="31.7109375" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" customWidth="1"/>
-    <col min="9" max="9" width="14" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="B1" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="C1" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="D1" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="E1" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="F1" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="G1" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="H1" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="I1" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="J1" s="29" t="s">
-        <v>90</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:J2" xr:uid="{00000000-0009-0000-0000-000012000000}"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="33" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" customWidth="1"/>
-    <col min="4" max="4" width="31.7109375" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="30" t="s">
-        <v>91</v>
-      </c>
-      <c r="B1" s="30" t="s">
-        <v>92</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="D1" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="E1" s="30" t="s">
-        <v>95</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:E2" xr:uid="{00000000-0009-0000-0000-000013000000}"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
-  <dimension ref="A1:F1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="28.140625" customWidth="1"/>
-    <col min="2" max="3" width="9.140625" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1"/>
-    <col min="5" max="5" width="248" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="C1" s="31" t="s">
-        <v>97</v>
-      </c>
-      <c r="D1" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="E1" s="31" t="s">
-        <v>99</v>
-      </c>
-      <c r="F1" s="31" t="s">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:F5" xr:uid="{00000000-0009-0000-0000-000014000000}"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D26" sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="32"/>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1" xr:uid="{00000000-0009-0000-0000-000015000000}"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D21" sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="33"/>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1" xr:uid="{00000000-0009-0000-0000-000016000000}"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
-  <dimension ref="A1:K1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="24.5703125" customWidth="1"/>
-    <col min="2" max="2" width="38.140625" customWidth="1"/>
-    <col min="3" max="3" width="38" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" customWidth="1"/>
-    <col min="7" max="7" width="18.7109375" customWidth="1"/>
-    <col min="8" max="8" width="21.42578125" customWidth="1"/>
-    <col min="9" max="9" width="25.42578125" customWidth="1"/>
-    <col min="10" max="10" width="38.140625" customWidth="1"/>
-    <col min="11" max="11" width="16.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="I1" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="J1" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="K1" s="34" t="s">
-        <v>37</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:K21" xr:uid="{00000000-0009-0000-0000-000017000000}"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:X2"/>
@@ -2497,59 +2142,59 @@
     <col min="15" max="15" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="36" customFormat="1">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:18" s="27" customFormat="1">
+      <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="35" t="s">
-        <v>118</v>
-      </c>
-      <c r="F1" s="35" t="s">
+      <c r="E1" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="35" t="s">
+      <c r="G1" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="35" t="s">
-        <v>119</v>
-      </c>
-      <c r="I1" s="35" t="s">
-        <v>120</v>
-      </c>
-      <c r="J1" s="35" t="s">
+      <c r="H1" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="I1" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="J1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="35" t="s">
+      <c r="K1" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="L1" s="35" t="s">
+      <c r="L1" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="M1" s="35" t="s">
+      <c r="M1" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="N1" s="35" t="s">
+      <c r="N1" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="O1" s="35" t="s">
+      <c r="O1" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="P1" s="35" t="s">
+      <c r="P1" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="Q1" s="35" t="s">
+      <c r="Q1" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="35" t="s">
+      <c r="R1" s="26" t="s">
         <v>49</v>
       </c>
     </row>

--- a/Tenant Migration Assessment/TenantAssessment-Template.xlsx
+++ b/Tenant Migration Assessment/TenantAssessment-Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\AdminSeanMc\Tenant Migration Assessment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BAB9323-7A29-497D-8550-F6C254964BB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4BED394-1DDD-45B7-808E-A9E12FCC34F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="7" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="High-Level" sheetId="25" r:id="rId1"/>
@@ -836,8 +836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18BF38E7-87BB-48B9-8B60-C799BBDAF6DD}">
   <dimension ref="A2:B23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -977,7 +977,7 @@
         <v>101</v>
       </c>
       <c r="B16" cm="1">
-        <f t="array" ref="B16">ROUNDUP(SUM(((Teams!E2:E1048576)/1024)/1024)/1024,3)</f>
+        <f t="array" ref="B16">ROUNDUP(SUM(((Teams!F2:F1048576)/1024)/1024)/1024,3)</f>
         <v>0</v>
       </c>
     </row>
@@ -986,7 +986,7 @@
         <v>102</v>
       </c>
       <c r="B17" cm="1">
-        <f t="array" ref="B17">ROUNDUP(SUM(((Teams!F2:F1048576)/1024)/1024)/1024,3)</f>
+        <f t="array" ref="B17">ROUNDUP(SUM(((Teams!G2:G1048576)/1024)/1024)/1024,3)</f>
         <v>0</v>
       </c>
     </row>
@@ -1216,7 +1216,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C30" sqref="C30"/>
     </sheetView>
@@ -2118,9 +2118,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:R12"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Tenant Migration Assessment/TenantAssessment-Template.xlsx
+++ b/Tenant Migration Assessment/TenantAssessment-Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\AdminSeanMc\Tenant Migration Assessment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Down\TOOLS\TenantAssessment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4BED394-1DDD-45B7-808E-A9E12FCC34F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED0FF7C8-FADC-42BC-A618-D66FF16F7B85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-30" windowWidth="29040" windowHeight="15720" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="High-Level" sheetId="25" r:id="rId1"/>
@@ -34,9 +34,9 @@
     <sheet name="OneDrive Sites" sheetId="24" r:id="rId19"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'AAD Apps'!$A$1:$D$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'AAD Apps'!$A$1:$E$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Conditional Access'!$A$1:$C$35</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Guest Accounts'!$A$1:$L$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Guest Accounts'!$A$1:$M$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'M365 Apps Usage Usage'!$A$1:$P$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">MailContacts!$A$1:$E$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'MX Records'!$A$1:$J$2</definedName>
@@ -45,12 +45,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Resource Accounts'!$A$1:$X$8</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">'Send Connectors'!$A$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Shared Mailboxes'!$A$1:$X$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'SharePoint Sites'!$A$1:$N$44</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'Standard Groups'!$A$1:$J$22</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Teams!$A$1:$O$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'SharePoint Sites'!$A$1:$O$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'Standard Groups'!$A$1:$O$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Teams!$A$1:$S$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">'Transport Rules'!$A$1:$F$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'Unified Groups'!$A$1:$J$13</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'User Accounts'!$A$1:$X$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'Unified Groups'!$A$1:$O$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'User Accounts'!$A$1:$AA$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">'Verified Domains'!$A$1:$E$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -62,7 +62,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -92,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="120">
   <si>
     <t>Migrate</t>
   </si>
@@ -437,13 +436,28 @@
   </si>
   <si>
     <t>Standard Groups</t>
+  </si>
+  <si>
+    <t>onPremisesSyncEnabled</t>
+  </si>
+  <si>
+    <t>onPremisesUserPrincipalName</t>
+  </si>
+  <si>
+    <t>onPremisesSamAccountName</t>
+  </si>
+  <si>
+    <t>Report Refresh Date</t>
+  </si>
+  <si>
+    <t>membershipRule</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -458,6 +472,12 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -480,38 +500,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -538,7 +534,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -836,18 +832,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18BF38E7-87BB-48B9-8B60-C799BBDAF6DD}">
   <dimension ref="A2:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" customWidth="1"/>
-    <col min="10" max="10" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" customWidth="1"/>
+    <col min="10" max="10" width="32.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>105</v>
       </c>
@@ -855,7 +851,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>91</v>
       </c>
@@ -864,7 +860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>92</v>
       </c>
@@ -873,7 +869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>93</v>
       </c>
@@ -882,7 +878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>94</v>
       </c>
@@ -891,25 +887,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>114</v>
       </c>
       <c r="B7">
-        <f>COUNTA('Standard Groups'!C:C)-1</f>
+        <f>COUNTA('Standard Groups'!D:D)-1</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>98</v>
       </c>
       <c r="B8">
-        <f>COUNTA('Unified Groups'!A:A)-1</f>
+        <f>COUNTA('Unified Groups'!B:B)-1</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>99</v>
       </c>
@@ -918,88 +914,88 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>95</v>
       </c>
       <c r="B10">
-        <f>COUNTA('SharePoint Sites'!B:B)-1</f>
+        <f>COUNTA('SharePoint Sites'!C:C)-1</f>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>100</v>
       </c>
       <c r="B11" cm="1">
-        <f t="array" ref="B11">SUM((('SharePoint Sites'!I2:I1048576)/1024)/1024)/1024</f>
+        <f t="array" ref="B11">SUM((('SharePoint Sites'!J2:J1048576)/1024)/1024)/1024</f>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>96</v>
       </c>
       <c r="B12">
-        <f>COUNTA(Teams!A:A)-1</f>
+        <f>COUNTA(Teams!B:B)-1</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>97</v>
       </c>
       <c r="B13">
-        <f>SUM(Teams!D2:D1048576)</f>
+        <f>SUM(Teams!E2:E1048576)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>111</v>
       </c>
       <c r="B14">
-        <f>SUM(Teams!E2:E1048576)</f>
+        <f>SUM(Teams!F2:F1048576)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>112</v>
       </c>
       <c r="B15">
-        <f>SUM(Teams!I2:I1048576)</f>
+        <f>SUM(Teams!J2:J1048576)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>101</v>
       </c>
       <c r="B16" cm="1">
-        <f t="array" ref="B16">ROUNDUP(SUM(((Teams!F2:F1048576)/1024)/1024)/1024,3)</f>
+        <f t="array" ref="B16">ROUNDUP(SUM(((Teams!G2:G1048576)/1024)/1024)/1024,3)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>102</v>
       </c>
       <c r="B17" cm="1">
-        <f t="array" ref="B17">ROUNDUP(SUM(((Teams!G2:G1048576)/1024)/1024)/1024,3)</f>
+        <f t="array" ref="B17">ROUNDUP(SUM(((Teams!H2:H1048576)/1024)/1024)/1024,3)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>113</v>
       </c>
       <c r="B18" cm="1">
-        <f t="array" ref="B18">ROUNDUP(SUM(((Teams!H2:H1048576)/1024)/1024)/1024,3)</f>
+        <f t="array" ref="B18">ROUNDUP(SUM(((Teams!I2:I1048576)/1024)/1024)/1024,3)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>104</v>
       </c>
@@ -1008,7 +1004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>103</v>
       </c>
@@ -1017,7 +1013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>107</v>
       </c>
@@ -1036,76 +1032,76 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.5703125" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" customWidth="1"/>
-    <col min="7" max="7" width="21.140625" customWidth="1"/>
-    <col min="8" max="8" width="26.7109375" customWidth="1"/>
-    <col min="9" max="9" width="28.140625" customWidth="1"/>
-    <col min="10" max="10" width="17.28515625" customWidth="1"/>
-    <col min="11" max="11" width="18.7109375" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="24.5546875" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" customWidth="1"/>
+    <col min="4" max="4" width="18.109375" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" customWidth="1"/>
+    <col min="6" max="6" width="19.5546875" customWidth="1"/>
+    <col min="7" max="7" width="21.109375" customWidth="1"/>
+    <col min="8" max="8" width="26.6640625" customWidth="1"/>
+    <col min="9" max="9" width="28.109375" customWidth="1"/>
+    <col min="10" max="10" width="17.33203125" customWidth="1"/>
+    <col min="11" max="11" width="18.6640625" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" customWidth="1"/>
     <col min="13" max="13" width="17" customWidth="1"/>
-    <col min="14" max="14" width="18.85546875" customWidth="1"/>
-    <col min="15" max="15" width="20.28515625" customWidth="1"/>
-    <col min="16" max="16" width="16.140625" customWidth="1"/>
+    <col min="14" max="14" width="18.88671875" customWidth="1"/>
+    <col min="15" max="15" width="20.33203125" customWidth="1"/>
+    <col min="16" max="16" width="16.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
-      <c r="A1" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="13" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="L1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="M1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="N1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="O1" s="13" t="s">
+      <c r="O1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="P1" s="2" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1117,185 +1113,224 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD13"/>
+      <selection pane="bottomLeft" activeCell="L1" sqref="L1:P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.42578125" customWidth="1"/>
-    <col min="2" max="2" width="25.42578125" customWidth="1"/>
-    <col min="3" max="3" width="56.28515625" customWidth="1"/>
-    <col min="4" max="4" width="135.85546875" customWidth="1"/>
-    <col min="5" max="5" width="21.28515625" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" customWidth="1"/>
-    <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="8" max="8" width="24" customWidth="1"/>
-    <col min="9" max="9" width="150.28515625" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" customWidth="1"/>
+    <col min="2" max="2" width="38.44140625" customWidth="1"/>
+    <col min="3" max="3" width="25.44140625" customWidth="1"/>
+    <col min="4" max="4" width="56.33203125" customWidth="1"/>
+    <col min="5" max="5" width="135.88671875" customWidth="1"/>
+    <col min="6" max="6" width="21.33203125" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1"/>
+    <col min="8" max="8" width="18" customWidth="1"/>
+    <col min="9" max="9" width="24" customWidth="1"/>
+    <col min="10" max="10" width="150.33203125" customWidth="1"/>
+    <col min="11" max="11" width="11.109375" customWidth="1"/>
+    <col min="12" max="12" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="30.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="29.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="C1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="D1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="E1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="F1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="G1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="H1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="I1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="J1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="K1" s="3" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="I2" s="14"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="I3" s="14"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="I4" s="14"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="I5" s="14"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="I6" s="14"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="I7" s="14"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="I8" s="14"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="I9" s="14"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="I10" s="14"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="I11" s="14"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="I12" s="14"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="I13" s="14"/>
+      <c r="L1" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="J13" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J13" xr:uid="{00000000-0009-0000-0000-00000A000000}"/>
+  <autoFilter ref="A1:O1" xr:uid="{00000000-0001-0000-0A00-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C30" sqref="C30"/>
+      <selection pane="bottomLeft" activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.7109375" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" customWidth="1"/>
-    <col min="3" max="3" width="45.7109375" customWidth="1"/>
-    <col min="4" max="4" width="87.42578125" customWidth="1"/>
-    <col min="5" max="5" width="21.28515625" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" customWidth="1"/>
-    <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="8" max="8" width="23.140625" customWidth="1"/>
-    <col min="9" max="9" width="51.28515625" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" customWidth="1"/>
+    <col min="2" max="2" width="38.6640625" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" customWidth="1"/>
+    <col min="4" max="4" width="45.6640625" customWidth="1"/>
+    <col min="5" max="5" width="87.44140625" customWidth="1"/>
+    <col min="6" max="6" width="21.33203125" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1"/>
+    <col min="8" max="8" width="18" customWidth="1"/>
+    <col min="9" max="9" width="23.109375" customWidth="1"/>
+    <col min="10" max="10" width="51.33203125" customWidth="1"/>
+    <col min="11" max="11" width="11.109375" customWidth="1"/>
+    <col min="12" max="12" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="30.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="29.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="C1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="E1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="F1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="G1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="H1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="I1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="J1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="K1" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="I2" s="16"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="I4" s="16"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="I5" s="16"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="I7" s="16"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="I11" s="16"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="I13" s="16"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="I15" s="16"/>
-    </row>
-    <row r="17" spans="9:9">
-      <c r="I17" s="16"/>
-    </row>
-    <row r="20" spans="9:9">
-      <c r="I20" s="16"/>
+      <c r="L1" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="J2" s="1"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="J5" s="1"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="J7" s="1"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="J11" s="1"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="J13" s="1"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="J15" s="1"/>
+    </row>
+    <row r="17" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J17" s="1"/>
+    </row>
+    <row r="20" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J20" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J22" xr:uid="{00000000-0009-0000-0000-000010000000}"/>
+  <autoFilter ref="A1:O1" xr:uid="{00000000-0001-0000-1000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1309,34 +1344,34 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="3" max="4" width="27.7109375" customWidth="1"/>
-    <col min="5" max="5" width="33.140625" customWidth="1"/>
+    <col min="1" max="1" width="19.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="3" max="4" width="27.6640625" customWidth="1"/>
+    <col min="5" max="5" width="33.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:E2" xr:uid="{00000000-0009-0000-0000-000011000000}"/>
@@ -1353,48 +1388,48 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="1"/>
-    <col min="2" max="3" width="41.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" customWidth="1"/>
-    <col min="5" max="5" width="31.7109375" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" customWidth="1"/>
+    <col min="2" max="3" width="41.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" customWidth="1"/>
+    <col min="5" max="5" width="31.6640625" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" customWidth="1"/>
+    <col min="10" max="10" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="J1" s="2" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1413,29 +1448,29 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="33" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" customWidth="1"/>
-    <col min="4" max="4" width="31.7109375" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" customWidth="1"/>
+    <col min="4" max="4" width="31.6640625" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="2" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1454,32 +1489,32 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.140625" customWidth="1"/>
-    <col min="2" max="3" width="9.140625" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col min="1" max="1" width="28.109375" customWidth="1"/>
+    <col min="2" max="3" width="9.109375" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" customWidth="1"/>
     <col min="5" max="5" width="248" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="2" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1498,13 +1533,13 @@
       <selection pane="bottomLeft" activeCell="D26" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="23"/>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1" xr:uid="{00000000-0009-0000-0000-000015000000}"/>
@@ -1521,13 +1556,13 @@
       <selection pane="bottomLeft" activeCell="D21" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="24"/>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1" xr:uid="{00000000-0009-0000-0000-000016000000}"/>
@@ -1544,53 +1579,53 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.5703125" customWidth="1"/>
-    <col min="2" max="2" width="38.140625" customWidth="1"/>
+    <col min="1" max="1" width="24.5546875" customWidth="1"/>
+    <col min="2" max="2" width="38.109375" customWidth="1"/>
     <col min="3" max="3" width="38" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" customWidth="1"/>
-    <col min="7" max="7" width="18.7109375" customWidth="1"/>
-    <col min="8" max="8" width="21.42578125" customWidth="1"/>
-    <col min="9" max="9" width="25.42578125" customWidth="1"/>
-    <col min="10" max="10" width="38.140625" customWidth="1"/>
-    <col min="11" max="11" width="16.140625" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" customWidth="1"/>
+    <col min="8" max="8" width="21.44140625" customWidth="1"/>
+    <col min="9" max="9" width="25.44140625" customWidth="1"/>
+    <col min="10" max="10" width="38.109375" customWidth="1"/>
+    <col min="11" max="11" width="16.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="I1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="J1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="25" t="s">
+      <c r="K1" s="2" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1602,297 +1637,315 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X29"/>
-  <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I2" sqref="A2:XFD30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="39" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="50.42578125" customWidth="1"/>
-    <col min="5" max="5" width="42.7109375" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" customWidth="1"/>
-    <col min="9" max="9" width="24.42578125" customWidth="1"/>
-    <col min="10" max="10" width="20.5703125" customWidth="1"/>
-    <col min="11" max="11" width="17" customWidth="1"/>
-    <col min="12" max="12" width="18.140625" customWidth="1"/>
-    <col min="13" max="13" width="20.5703125" customWidth="1"/>
-    <col min="14" max="14" width="15" customWidth="1"/>
-    <col min="15" max="15" width="16.5703125" customWidth="1"/>
-    <col min="16" max="16" width="20" customWidth="1"/>
-    <col min="17" max="17" width="13.85546875" customWidth="1"/>
-    <col min="18" max="18" width="15.42578125" customWidth="1"/>
-    <col min="19" max="19" width="48.28515625" customWidth="1"/>
-    <col min="20" max="20" width="114.85546875" customWidth="1"/>
-    <col min="21" max="21" width="28.140625" customWidth="1"/>
-    <col min="22" max="22" width="706.28515625" customWidth="1"/>
-    <col min="23" max="23" width="16.42578125" customWidth="1"/>
-    <col min="24" max="24" width="11.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:24">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24">
-      <c r="S2" s="1"/>
-    </row>
-    <row r="3" spans="1:24">
-      <c r="S3" s="1"/>
-    </row>
-    <row r="4" spans="1:24">
-      <c r="S4" s="1"/>
-    </row>
-    <row r="5" spans="1:24">
-      <c r="S5" s="1"/>
-    </row>
-    <row r="8" spans="1:24">
-      <c r="S8" s="1"/>
-    </row>
-    <row r="10" spans="1:24">
-      <c r="S10" s="1"/>
-    </row>
-    <row r="11" spans="1:24">
-      <c r="S11" s="1"/>
-    </row>
-    <row r="13" spans="1:24">
-      <c r="S13" s="1"/>
-    </row>
-    <row r="15" spans="1:24">
-      <c r="S15" s="1"/>
-    </row>
-    <row r="16" spans="1:24">
-      <c r="S16" s="1"/>
-    </row>
-    <row r="17" spans="19:19">
-      <c r="S17" s="1"/>
-    </row>
-    <row r="18" spans="19:19">
-      <c r="S18" s="1"/>
-    </row>
-    <row r="19" spans="19:19">
-      <c r="S19" s="1"/>
-    </row>
-    <row r="20" spans="19:19">
-      <c r="S20" s="1"/>
-    </row>
-    <row r="21" spans="19:19">
-      <c r="S21" s="1"/>
-    </row>
-    <row r="22" spans="19:19">
-      <c r="S22" s="1"/>
-    </row>
-    <row r="24" spans="19:19">
-      <c r="S24" s="1"/>
-    </row>
-    <row r="25" spans="19:19">
-      <c r="S25" s="1"/>
-    </row>
-    <row r="27" spans="19:19">
-      <c r="S27" s="1"/>
-    </row>
-    <row r="28" spans="19:19">
-      <c r="S28" s="1"/>
-    </row>
-    <row r="29" spans="19:19">
-      <c r="S29" s="1"/>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:X30" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:X2"/>
+  <dimension ref="A1:AA29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
+      <selection pane="bottomLeft" activeCell="Y1" sqref="Y1:AA1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="37.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="39" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="43.85546875" customWidth="1"/>
-    <col min="5" max="5" width="45.140625" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" customWidth="1"/>
-    <col min="10" max="10" width="20.5703125" customWidth="1"/>
+    <col min="4" max="4" width="50.44140625" customWidth="1"/>
+    <col min="5" max="5" width="42.6640625" customWidth="1"/>
+    <col min="6" max="6" width="16.5546875" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" customWidth="1"/>
+    <col min="9" max="9" width="24.44140625" customWidth="1"/>
+    <col min="10" max="10" width="20.5546875" customWidth="1"/>
     <col min="11" max="11" width="17" customWidth="1"/>
-    <col min="12" max="12" width="18.140625" customWidth="1"/>
-    <col min="13" max="13" width="20.5703125" customWidth="1"/>
+    <col min="12" max="12" width="18.109375" customWidth="1"/>
+    <col min="13" max="13" width="20.5546875" customWidth="1"/>
     <col min="14" max="14" width="15" customWidth="1"/>
-    <col min="15" max="15" width="16.5703125" customWidth="1"/>
+    <col min="15" max="15" width="16.5546875" customWidth="1"/>
     <col min="16" max="16" width="20" customWidth="1"/>
-    <col min="17" max="17" width="13.85546875" customWidth="1"/>
-    <col min="18" max="18" width="11.5703125" customWidth="1"/>
-    <col min="19" max="19" width="98.7109375" customWidth="1"/>
-    <col min="20" max="20" width="15.140625" customWidth="1"/>
-    <col min="21" max="21" width="28.140625" customWidth="1"/>
-    <col min="22" max="22" width="19.140625" customWidth="1"/>
-    <col min="23" max="23" width="16.42578125" customWidth="1"/>
-    <col min="24" max="24" width="11.85546875" customWidth="1"/>
+    <col min="17" max="17" width="13.88671875" customWidth="1"/>
+    <col min="18" max="18" width="15.44140625" customWidth="1"/>
+    <col min="19" max="19" width="48.33203125" customWidth="1"/>
+    <col min="20" max="20" width="114.88671875" customWidth="1"/>
+    <col min="21" max="21" width="28.109375" customWidth="1"/>
+    <col min="22" max="22" width="706.33203125" customWidth="1"/>
+    <col min="23" max="23" width="16.44140625" customWidth="1"/>
+    <col min="24" max="24" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="W1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="X1" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:24">
-      <c r="S2" s="3"/>
+      <c r="Y1" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="S2" s="1"/>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="S3" s="1"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="S4" s="1"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="S5" s="1"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="S8" s="1"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="S10" s="1"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="S11" s="1"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="S13" s="1"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="S15" s="1"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="S16" s="1"/>
+    </row>
+    <row r="17" spans="19:19" x14ac:dyDescent="0.3">
+      <c r="S17" s="1"/>
+    </row>
+    <row r="18" spans="19:19" x14ac:dyDescent="0.3">
+      <c r="S18" s="1"/>
+    </row>
+    <row r="19" spans="19:19" x14ac:dyDescent="0.3">
+      <c r="S19" s="1"/>
+    </row>
+    <row r="20" spans="19:19" x14ac:dyDescent="0.3">
+      <c r="S20" s="1"/>
+    </row>
+    <row r="21" spans="19:19" x14ac:dyDescent="0.3">
+      <c r="S21" s="1"/>
+    </row>
+    <row r="22" spans="19:19" x14ac:dyDescent="0.3">
+      <c r="S22" s="1"/>
+    </row>
+    <row r="24" spans="19:19" x14ac:dyDescent="0.3">
+      <c r="S24" s="1"/>
+    </row>
+    <row r="25" spans="19:19" x14ac:dyDescent="0.3">
+      <c r="S25" s="1"/>
+    </row>
+    <row r="27" spans="19:19" x14ac:dyDescent="0.3">
+      <c r="S27" s="1"/>
+    </row>
+    <row r="28" spans="19:19" x14ac:dyDescent="0.3">
+      <c r="S28" s="1"/>
+    </row>
+    <row r="29" spans="19:19" x14ac:dyDescent="0.3">
+      <c r="S29" s="1"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:AA1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:AA2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Y1" sqref="Y1:AA1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="37.88671875" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="43.88671875" customWidth="1"/>
+    <col min="5" max="5" width="45.109375" customWidth="1"/>
+    <col min="6" max="6" width="16.5546875" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" customWidth="1"/>
+    <col min="10" max="10" width="20.5546875" customWidth="1"/>
+    <col min="11" max="11" width="17" customWidth="1"/>
+    <col min="12" max="12" width="18.109375" customWidth="1"/>
+    <col min="13" max="13" width="20.5546875" customWidth="1"/>
+    <col min="14" max="14" width="15" customWidth="1"/>
+    <col min="15" max="15" width="16.5546875" customWidth="1"/>
+    <col min="16" max="16" width="20" customWidth="1"/>
+    <col min="17" max="17" width="13.88671875" customWidth="1"/>
+    <col min="18" max="18" width="11.5546875" customWidth="1"/>
+    <col min="19" max="19" width="98.6640625" customWidth="1"/>
+    <col min="20" max="20" width="15.109375" customWidth="1"/>
+    <col min="21" max="21" width="28.109375" customWidth="1"/>
+    <col min="22" max="22" width="19.109375" customWidth="1"/>
+    <col min="23" max="23" width="16.44140625" customWidth="1"/>
+    <col min="24" max="24" width="11.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="S2" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:X2" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
@@ -1902,134 +1955,143 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:X8"/>
+  <dimension ref="A1:AA8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1048542" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD1048576"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="39.28515625" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="39.33203125" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="5" width="40.85546875" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" customWidth="1"/>
-    <col min="10" max="10" width="20.5703125" customWidth="1"/>
+    <col min="4" max="5" width="40.88671875" customWidth="1"/>
+    <col min="6" max="6" width="16.5546875" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" customWidth="1"/>
+    <col min="9" max="9" width="18.44140625" customWidth="1"/>
+    <col min="10" max="10" width="20.5546875" customWidth="1"/>
     <col min="11" max="11" width="17" customWidth="1"/>
-    <col min="12" max="12" width="18.140625" customWidth="1"/>
-    <col min="13" max="13" width="20.5703125" customWidth="1"/>
+    <col min="12" max="12" width="18.109375" customWidth="1"/>
+    <col min="13" max="13" width="20.5546875" customWidth="1"/>
     <col min="14" max="14" width="15" customWidth="1"/>
-    <col min="15" max="15" width="16.5703125" customWidth="1"/>
+    <col min="15" max="15" width="16.5546875" customWidth="1"/>
     <col min="16" max="16" width="20" customWidth="1"/>
-    <col min="17" max="17" width="13.85546875" customWidth="1"/>
-    <col min="18" max="18" width="11.5703125" customWidth="1"/>
-    <col min="19" max="19" width="46.42578125" customWidth="1"/>
-    <col min="20" max="20" width="15.140625" customWidth="1"/>
-    <col min="21" max="21" width="28.140625" customWidth="1"/>
-    <col min="22" max="22" width="19.140625" customWidth="1"/>
-    <col min="23" max="23" width="16.42578125" customWidth="1"/>
-    <col min="24" max="24" width="11.85546875" customWidth="1"/>
+    <col min="17" max="17" width="13.88671875" customWidth="1"/>
+    <col min="18" max="18" width="11.5546875" customWidth="1"/>
+    <col min="19" max="19" width="46.44140625" customWidth="1"/>
+    <col min="20" max="20" width="15.109375" customWidth="1"/>
+    <col min="21" max="21" width="28.109375" customWidth="1"/>
+    <col min="22" max="22" width="19.109375" customWidth="1"/>
+    <col min="23" max="23" width="16.44140625" customWidth="1"/>
+    <col min="24" max="24" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="W1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="X1" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:24">
-      <c r="S2" s="5"/>
-    </row>
-    <row r="3" spans="1:24">
-      <c r="S3" s="5"/>
-    </row>
-    <row r="4" spans="1:24">
-      <c r="S4" s="5"/>
-    </row>
-    <row r="5" spans="1:24">
-      <c r="S5" s="5"/>
-    </row>
-    <row r="6" spans="1:24">
-      <c r="S6" s="5"/>
-    </row>
-    <row r="7" spans="1:24">
-      <c r="S7" s="5"/>
-    </row>
-    <row r="8" spans="1:24">
-      <c r="S8" s="5"/>
+      <c r="Y1" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="S2" s="1"/>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="S3" s="1"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="S4" s="1"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="S5" s="1"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="S6" s="1"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="S7" s="1"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="S8" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:X8" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
@@ -2039,320 +2101,332 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:O1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I1" sqref="I1:I1048576"/>
+      <selection pane="bottomLeft" sqref="A1:O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39" customWidth="1"/>
-    <col min="2" max="2" width="38" customWidth="1"/>
-    <col min="3" max="3" width="38.140625" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" customWidth="1"/>
-    <col min="7" max="7" width="18.7109375" customWidth="1"/>
-    <col min="8" max="8" width="18.85546875" customWidth="1"/>
-    <col min="9" max="9" width="21.42578125" customWidth="1"/>
-    <col min="10" max="10" width="25.42578125" customWidth="1"/>
-    <col min="11" max="11" width="39.7109375" customWidth="1"/>
-    <col min="12" max="12" width="38.42578125" customWidth="1"/>
-    <col min="13" max="13" width="16.140625" customWidth="1"/>
-    <col min="14" max="14" width="10.5703125" customWidth="1"/>
+    <col min="2" max="2" width="39" customWidth="1"/>
+    <col min="3" max="3" width="38" customWidth="1"/>
+    <col min="4" max="4" width="38.109375" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" customWidth="1"/>
+    <col min="9" max="9" width="18.88671875" customWidth="1"/>
+    <col min="10" max="10" width="21.44140625" customWidth="1"/>
+    <col min="11" max="11" width="25.44140625" customWidth="1"/>
+    <col min="12" max="12" width="39.6640625" customWidth="1"/>
+    <col min="13" max="13" width="38.44140625" customWidth="1"/>
+    <col min="14" max="14" width="16.109375" customWidth="1"/>
+    <col min="15" max="15" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="L1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="M1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="N1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="O1" s="2" t="s">
         <v>38</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N44" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
+  <autoFilter ref="A1:O1" xr:uid="{00000000-0001-0000-0300-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:R12"/>
+  <dimension ref="A1:S12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:S1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="38.44140625" customWidth="1"/>
+    <col min="3" max="3" width="29.5546875" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="18.109375" customWidth="1"/>
+    <col min="6" max="6" width="27.33203125" customWidth="1"/>
+    <col min="7" max="7" width="21.6640625" customWidth="1"/>
+    <col min="8" max="8" width="60.33203125" customWidth="1"/>
+    <col min="9" max="9" width="69.5546875" customWidth="1"/>
+    <col min="10" max="10" width="29.5546875" customWidth="1"/>
+    <col min="11" max="11" width="21.33203125" customWidth="1"/>
+    <col min="12" max="12" width="14.6640625" customWidth="1"/>
+    <col min="13" max="13" width="18" customWidth="1"/>
+    <col min="14" max="14" width="28.109375" customWidth="1"/>
+    <col min="15" max="15" width="155" customWidth="1"/>
+    <col min="16" max="16" width="11.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="I2" s="1"/>
+      <c r="O2" s="1"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="I3" s="1"/>
+      <c r="O3" s="1"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="I4" s="1"/>
+      <c r="O4" s="1"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="I5" s="1"/>
+      <c r="O5" s="1"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="I6" s="1"/>
+      <c r="O6" s="1"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="I7" s="1"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="I8" s="1"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="I9" s="1"/>
+      <c r="O9" s="1"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="I10" s="1"/>
+      <c r="O10" s="1"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="I11" s="1"/>
+      <c r="O11" s="1"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="I12" s="1"/>
+      <c r="O12" s="1"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:S1" xr:uid="{00000000-0001-0000-0400-000000000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1:F1048576"/>
+      <selection pane="bottomLeft" activeCell="M1" sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.42578125" customWidth="1"/>
-    <col min="2" max="2" width="29.5703125" customWidth="1"/>
-    <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" customWidth="1"/>
-    <col min="5" max="5" width="27.28515625" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" customWidth="1"/>
-    <col min="7" max="7" width="60.28515625" customWidth="1"/>
-    <col min="8" max="8" width="69.5703125" customWidth="1"/>
-    <col min="9" max="9" width="29.5703125" customWidth="1"/>
-    <col min="10" max="10" width="21.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" customWidth="1"/>
-    <col min="12" max="12" width="18" customWidth="1"/>
-    <col min="13" max="13" width="28.140625" customWidth="1"/>
-    <col min="14" max="14" width="155" customWidth="1"/>
-    <col min="15" max="15" width="11.140625" customWidth="1"/>
+    <col min="2" max="2" width="38.33203125" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="64.33203125" customWidth="1"/>
+    <col min="5" max="5" width="27.5546875" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" customWidth="1"/>
+    <col min="7" max="7" width="13.88671875" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" customWidth="1"/>
+    <col min="9" max="9" width="33.109375" customWidth="1"/>
+    <col min="10" max="10" width="15.109375" customWidth="1"/>
+    <col min="11" max="11" width="28.109375" customWidth="1"/>
+    <col min="12" max="12" width="19.109375" customWidth="1"/>
+    <col min="13" max="13" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="27" customFormat="1">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="F1" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="G1" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="H1" s="26" t="s">
-        <v>109</v>
-      </c>
-      <c r="I1" s="26" t="s">
-        <v>110</v>
-      </c>
-      <c r="J1" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="L1" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="M1" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="N1" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="O1" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="P1" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q1" s="26" t="s">
+      <c r="G1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="26" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18">
-      <c r="H2" s="8"/>
-      <c r="N2" s="8"/>
-    </row>
-    <row r="3" spans="1:18">
-      <c r="H3" s="8"/>
-      <c r="N3" s="8"/>
-    </row>
-    <row r="4" spans="1:18">
-      <c r="H4" s="8"/>
-      <c r="N4" s="8"/>
-    </row>
-    <row r="5" spans="1:18">
-      <c r="H5" s="8"/>
-      <c r="N5" s="8"/>
-    </row>
-    <row r="6" spans="1:18">
-      <c r="H6" s="8"/>
-      <c r="N6" s="8"/>
-    </row>
-    <row r="7" spans="1:18">
-      <c r="H7" s="8"/>
-      <c r="N7" s="8"/>
-    </row>
-    <row r="8" spans="1:18">
-      <c r="H8" s="8"/>
-      <c r="N8" s="8"/>
-    </row>
-    <row r="9" spans="1:18">
-      <c r="H9" s="8"/>
-      <c r="N9" s="8"/>
-    </row>
-    <row r="10" spans="1:18">
-      <c r="H10" s="8"/>
-      <c r="N10" s="8"/>
-    </row>
-    <row r="11" spans="1:18">
-      <c r="H11" s="8"/>
-      <c r="N11" s="8"/>
-    </row>
-    <row r="12" spans="1:18">
-      <c r="H12" s="8"/>
-      <c r="N12" s="8"/>
+      <c r="J1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I2" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O12" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
+  <autoFilter ref="A1:M1" xr:uid="{00000000-0001-0000-0500-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:L2"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
+      <selection pane="bottomLeft" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.28515625" customWidth="1"/>
-    <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="64.28515625" customWidth="1"/>
-    <col min="4" max="4" width="27.5703125" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" customWidth="1"/>
-    <col min="8" max="8" width="33.140625" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" customWidth="1"/>
-    <col min="10" max="10" width="28.140625" customWidth="1"/>
-    <col min="11" max="11" width="19.140625" customWidth="1"/>
-    <col min="12" max="12" width="11.85546875" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" customWidth="1"/>
+    <col min="3" max="3" width="24.5546875" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="10" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="H2" s="9"/>
+      <c r="D1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>51</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L2" xr:uid="{00000000-0009-0000-0000-000005000000}"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:D7" xr:uid="{00000000-0009-0000-0000-000006000000}"/>
+  <autoFilter ref="A1:E1" xr:uid="{00000000-0001-0000-0600-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2363,22 +2437,216 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="A1:C35"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="63" customWidth="1"/>
-    <col min="2" max="2" width="60.28515625" customWidth="1"/>
-    <col min="3" max="3" width="54.140625" customWidth="1"/>
+    <col min="2" max="2" width="60.33203125" customWidth="1"/>
+    <col min="3" max="3" width="54.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="12"/>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010049F1F632980C8D4185996D033FED7E1D" ma:contentTypeVersion="4" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="5ddd17826dde3d961ab805c2a6e37dc8">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="daef7f29-b6a8-4350-a6a5-1d75dc0afb2d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="eb0de002f090779f7197c6f828b94023" ns2:_="">
+    <xsd:import namespace="daef7f29-b6a8-4350-a6a5-1d75dc0afb2d"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="daef7f29-b6a8-4350-a6a5-1d75dc0afb2d" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Inhaltstyp"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titel"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D6C61E38-B9B6-473C-A191-2433B346D1B7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A81039E-1153-4F0B-A4F0-5382BC1A30B2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9CA4671-7296-425B-8E28-1DC28D804B30}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="daef7f29-b6a8-4350-a6a5-1d75dc0afb2d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>